--- a/ADP/TP Integrador/Lista actividades.xlsx
+++ b/ADP/TP Integrador/Lista actividades.xlsx
@@ -5,28 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\UAI-2024\ADP\TP Integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A1CFB4-E71E-48C6-8254-8F49D40E9BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACC4610-C909-4C85-B066-A03F33695F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="AEN" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
   <si>
     <t>Nombre Actividad</t>
   </si>
@@ -235,49 +245,16 @@
     <t>Dur Prom ponderada</t>
   </si>
   <si>
-    <t>Desarrollador Backend</t>
-  </si>
-  <si>
-    <t>#VALUE!</t>
-  </si>
-  <si>
-    <t>Analista de Datos</t>
-  </si>
-  <si>
-    <t>Especialista en Seguridad</t>
-  </si>
-  <si>
-    <t>Desarrollador Frontend</t>
-  </si>
-  <si>
-    <t>DBA</t>
-  </si>
-  <si>
-    <t>Diseñador UI/UX</t>
-  </si>
-  <si>
-    <t>Desarrollador Mobile</t>
-  </si>
-  <si>
-    <t>Ingeniero de Soporte</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>Técnico en Agricultura Urbana</t>
-  </si>
-  <si>
-    <t>Técnico en electrónica</t>
-  </si>
-  <si>
-    <t>Redactor técnico</t>
-  </si>
-  <si>
-    <t>Consultor ambiental</t>
-  </si>
-  <si>
     <t>Confección de guía de mantenimiento y limpieza</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -314,7 +291,7 @@
       <name val="Google Sans Mono"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,8 +352,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -795,11 +778,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -858,6 +886,111 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -867,12 +1000,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -882,74 +1009,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -960,6 +1036,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -969,59 +1051,20 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1038,6 +1081,556 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Conector recto de flecha 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02F32905-E251-4426-BB5D-5FEE4E9F6EEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2395538" y="2305050"/>
+          <a:ext cx="442912" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto de flecha 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE475EA7-469E-4F81-B611-CA99E539531A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2386013" y="2819400"/>
+          <a:ext cx="442912" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector recto de flecha 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09AC06C4-7951-4D50-9598-817845DCB753}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6253163" y="1700213"/>
+          <a:ext cx="366712" cy="52387"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5F87B8-C7D1-4EA8-B4FF-36395C7719A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6191250" y="2133600"/>
+          <a:ext cx="485775" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector recto de flecha 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05B9EF10-F0CF-45FA-A495-197F2CE47885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8501063" y="2266950"/>
+          <a:ext cx="485775" cy="90488"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector recto de flecha 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3385D46F-E953-4731-9F18-523F4D8F8CDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11544300" y="2238375"/>
+          <a:ext cx="509588" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9726D13F-4395-4535-9849-58588D62ECC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14678025" y="2814638"/>
+          <a:ext cx="381000" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector recto de flecha 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DBB6B5F-1FCF-4437-9E60-40D5EC06C175}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14592300" y="2333625"/>
+          <a:ext cx="485775" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>661988</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Conector recto de flecha 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CDAA155-84B7-4DF2-8F9E-08DB352FD4DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11677650" y="2481263"/>
+          <a:ext cx="414338" cy="576262"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>614363</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector recto de flecha 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917F31E4-7240-44A4-9B62-162C479C25D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8748713" y="3262313"/>
+          <a:ext cx="3295650" cy="52387"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1305,7 +1898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1328,17 +1921,17 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="4" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30">
+      <c r="B4" s="24">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1379,10 +1972,10 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="28">
+      <c r="B8" s="22">
         <v>5</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1390,17 +1983,17 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="30">
+      <c r="B10" s="24">
         <v>6</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="5">
@@ -1419,10 +2012,10 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="28">
+      <c r="B12" s="22">
         <v>8</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1430,17 +2023,17 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="30">
+      <c r="B14" s="24">
         <v>9</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="25" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1459,10 +2052,10 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="28">
+      <c r="B16" s="22">
         <v>11</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1470,17 +2063,17 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
     </row>
     <row r="18" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="30">
+      <c r="B18" s="24">
         <v>12</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1488,10 +2081,10 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="28">
+      <c r="B19" s="22">
         <v>13</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="5">
@@ -1499,17 +2092,17 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
     </row>
     <row r="21" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="30">
+      <c r="B21" s="24">
         <v>14</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -1528,10 +2121,10 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="28">
+      <c r="B23" s="22">
         <v>16</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="5">
@@ -1539,17 +2132,17 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
     </row>
     <row r="25" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="30">
+      <c r="B25" s="24">
         <v>17</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="25" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -1557,10 +2150,10 @@
       </c>
     </row>
     <row r="26" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="28">
+      <c r="B26" s="22">
         <v>18</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="5">
@@ -1568,17 +2161,17 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
     </row>
     <row r="28" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="30">
+      <c r="B28" s="24">
         <v>19</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="25" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="5">
@@ -1608,10 +2201,10 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="28">
+      <c r="B31" s="22">
         <v>22</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="23" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="5">
@@ -1619,17 +2212,17 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="60"/>
     </row>
     <row r="33" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="23">
+      <c r="B33" s="20">
         <v>23</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -1659,17 +2252,17 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
     </row>
     <row r="37" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="23">
+      <c r="B37" s="20">
         <v>26</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="21" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="5">
@@ -1710,17 +2303,17 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="60"/>
     </row>
     <row r="42" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="23">
+      <c r="B42" s="20">
         <v>30</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="5">
@@ -1750,11 +2343,11 @@
       </c>
     </row>
     <row r="45" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="22"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="57"/>
     </row>
     <row r="46" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="18">
@@ -1802,6 +2395,7 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B41:D41"/>
@@ -1812,7 +2406,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1824,10 +2417,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FE9F64-B4AE-4EF8-AC57-34F00D02D8A0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,17 +2432,18 @@
     <col min="3" max="3" width="60.140625" customWidth="1"/>
     <col min="4" max="8" width="16" customWidth="1"/>
     <col min="9" max="11" width="4.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="64" t="s">
         <v>60</v>
       </c>
@@ -1855,970 +2452,891 @@
       <c r="L2" s="66"/>
     </row>
     <row r="3" spans="2:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="40" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="53"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="43">
+      <c r="B5" s="31">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61" t="s">
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="42"/>
+    </row>
+    <row r="6" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="31">
+        <v>2</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="40"/>
+    </row>
+    <row r="7" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="31">
+        <v>3</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="40"/>
+    </row>
+    <row r="8" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="31">
+        <v>4</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="33">
+        <v>3</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="40"/>
+    </row>
+    <row r="9" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="31">
+        <v>5</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+    </row>
+    <row r="10" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="69"/>
+    </row>
+    <row r="11" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="31">
+        <v>6</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="33">
+        <v>13</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="40"/>
+    </row>
+    <row r="12" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="31">
+        <v>7</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="40"/>
+    </row>
+    <row r="13" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="31">
+        <v>8</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+    </row>
+    <row r="14" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="69"/>
+    </row>
+    <row r="15" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="31">
+        <v>9</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="40"/>
+    </row>
+    <row r="16" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="31">
+        <v>10</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="40"/>
+    </row>
+    <row r="17" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="31">
+        <v>11</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+    </row>
+    <row r="18" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="69"/>
+    </row>
+    <row r="19" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="31">
+        <v>12</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="40"/>
+    </row>
+    <row r="20" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="31">
+        <v>13</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="34">
+        <v>12</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+    </row>
+    <row r="21" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="69"/>
+    </row>
+    <row r="22" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="31">
+        <v>14</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="40"/>
+    </row>
+    <row r="23" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="31">
+        <v>15</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="33">
+        <v>14</v>
+      </c>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="40"/>
+    </row>
+    <row r="24" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="31">
+        <v>16</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="34">
+        <v>15</v>
+      </c>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+    </row>
+    <row r="25" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="69"/>
+    </row>
+    <row r="26" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="31">
+        <v>17</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="40"/>
+    </row>
+    <row r="27" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="31">
+        <v>18</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="34">
+        <v>17</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+    </row>
+    <row r="28" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="69"/>
+    </row>
+    <row r="29" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="31">
+        <v>19</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="33">
+        <v>18</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="40"/>
+    </row>
+    <row r="30" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="31">
+        <v>20</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="33">
+        <v>19</v>
+      </c>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="40"/>
+    </row>
+    <row r="31" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="31">
+        <v>21</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="33">
+        <v>20</v>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="40"/>
+    </row>
+    <row r="32" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="31">
+        <v>22</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="34">
+        <v>21</v>
+      </c>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+    </row>
+    <row r="33" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="74"/>
+    </row>
+    <row r="34" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="35">
+        <v>23</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="40"/>
+    </row>
+    <row r="35" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="35">
+        <v>24</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="33">
+        <v>23</v>
+      </c>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="40"/>
+    </row>
+    <row r="36" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="35">
+        <v>25</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="34">
+        <v>24</v>
+      </c>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+    </row>
+    <row r="37" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="74"/>
+    </row>
+    <row r="38" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="35">
+        <v>26</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="33">
+        <v>25</v>
+      </c>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="40"/>
+    </row>
+    <row r="39" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="35">
+        <v>27</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="33">
+        <v>26</v>
+      </c>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="40"/>
+    </row>
+    <row r="40" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="35">
+        <v>28</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="33">
+        <v>26</v>
+      </c>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="40"/>
+    </row>
+    <row r="41" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="35">
+        <v>29</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="34">
+        <v>28</v>
+      </c>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+    </row>
+    <row r="42" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="74"/>
+    </row>
+    <row r="43" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="35">
+        <v>30</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="33">
+        <v>25</v>
+      </c>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="40"/>
+    </row>
+    <row r="44" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="35">
+        <v>31</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="33">
+        <v>30</v>
+      </c>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="40"/>
+    </row>
+    <row r="45" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="35">
+        <v>32</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="34">
+        <v>31</v>
+      </c>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+    </row>
+    <row r="46" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="63"/>
+    </row>
+    <row r="47" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="37">
+        <v>33</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="40"/>
+    </row>
+    <row r="48" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="37">
+        <v>34</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="33">
+        <v>33</v>
+      </c>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="40"/>
+    </row>
+    <row r="49" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="37">
+        <v>35</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="33">
+        <v>34</v>
+      </c>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="40"/>
+    </row>
+    <row r="50" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="37">
+        <v>36</v>
+      </c>
+      <c r="C50" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="63" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="43">
-        <v>2</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="61"/>
-    </row>
-    <row r="7" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="43">
-        <v>3</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="61"/>
-    </row>
-    <row r="8" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="43">
-        <v>4</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="45">
-        <v>3</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="61"/>
-    </row>
-    <row r="9" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="43">
-        <v>5</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-    </row>
-    <row r="10" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="53"/>
-    </row>
-    <row r="11" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="43">
-        <v>6</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="45">
-        <v>13</v>
-      </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="61"/>
-    </row>
-    <row r="12" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="43">
-        <v>7</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="61"/>
-    </row>
-    <row r="13" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="43">
-        <v>8</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-    </row>
-    <row r="14" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
-    </row>
-    <row r="15" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="43">
-        <v>9</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="61"/>
-    </row>
-    <row r="16" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="43">
-        <v>10</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="61"/>
-    </row>
-    <row r="17" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="43">
-        <v>11</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-    </row>
-    <row r="18" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
-    </row>
-    <row r="19" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="43">
-        <v>12</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="61"/>
-    </row>
-    <row r="20" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="43">
-        <v>13</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="46">
-        <v>12</v>
-      </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-    </row>
-    <row r="21" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="53"/>
-    </row>
-    <row r="22" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="43">
-        <v>14</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="61"/>
-    </row>
-    <row r="23" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="43">
-        <v>15</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="45">
-        <v>14</v>
-      </c>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="61"/>
-    </row>
-    <row r="24" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="43">
-        <v>16</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="46">
-        <v>15</v>
-      </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-    </row>
-    <row r="25" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="53"/>
-    </row>
-    <row r="26" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="43">
-        <v>17</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="67"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="61"/>
-    </row>
-    <row r="27" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="43">
-        <v>18</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="46">
-        <v>17</v>
-      </c>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="68"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-    </row>
-    <row r="28" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="53"/>
-    </row>
-    <row r="29" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="43">
-        <v>19</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="45">
-        <v>18</v>
-      </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="61"/>
-    </row>
-    <row r="30" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="43">
-        <v>20</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="45">
-        <v>19</v>
-      </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="61"/>
-    </row>
-    <row r="31" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="43">
-        <v>21</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="45">
-        <v>20</v>
-      </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="61"/>
-    </row>
-    <row r="32" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="43">
-        <v>22</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="46">
-        <v>21</v>
-      </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-    </row>
-    <row r="33" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="56"/>
-    </row>
-    <row r="34" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="47">
-        <v>23</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="61"/>
-    </row>
-    <row r="35" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="47">
-        <v>24</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="45">
-        <v>23</v>
-      </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="61"/>
-    </row>
-    <row r="36" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="47">
-        <v>25</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="46">
-        <v>24</v>
-      </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-    </row>
-    <row r="37" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="56"/>
-    </row>
-    <row r="38" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="47">
-        <v>26</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="45">
-        <v>25</v>
-      </c>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="61"/>
-    </row>
-    <row r="39" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="47">
-        <v>27</v>
-      </c>
-      <c r="C39" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="45">
-        <v>26</v>
-      </c>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="61"/>
-    </row>
-    <row r="40" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="47">
-        <v>28</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="45">
-        <v>26</v>
-      </c>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="61"/>
-    </row>
-    <row r="41" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="47">
-        <v>29</v>
-      </c>
-      <c r="C41" s="48" t="s">
+      <c r="D50" s="34">
         <v>35</v>
       </c>
-      <c r="D41" s="46">
-        <v>28</v>
-      </c>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-    </row>
-    <row r="42" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="56"/>
-    </row>
-    <row r="43" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="47">
-        <v>30</v>
-      </c>
-      <c r="C43" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="45">
-        <v>25</v>
-      </c>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="61"/>
-    </row>
-    <row r="44" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="47">
-        <v>31</v>
-      </c>
-      <c r="C44" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="45">
-        <v>30</v>
-      </c>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="61"/>
-    </row>
-    <row r="45" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="47">
-        <v>32</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="46">
-        <v>31</v>
-      </c>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="61"/>
-    </row>
-    <row r="46" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="59"/>
-    </row>
-    <row r="47" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="49">
-        <v>33</v>
-      </c>
-      <c r="C47" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="61"/>
-    </row>
-    <row r="48" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="49">
-        <v>34</v>
-      </c>
-      <c r="C48" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="45">
-        <v>33</v>
-      </c>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="61"/>
-    </row>
-    <row r="49" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="49">
-        <v>35</v>
-      </c>
-      <c r="C49" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="45">
-        <v>34</v>
-      </c>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="61"/>
-    </row>
-    <row r="50" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="49">
-        <v>36</v>
-      </c>
-      <c r="C50" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" s="46">
-        <v>35</v>
-      </c>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="61"/>
-      <c r="L50" s="61"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="B37:L37"/>
-    <mergeCell ref="B42:L42"/>
     <mergeCell ref="B46:L46"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="B4:L4"/>
@@ -2826,7 +3344,313 @@
     <mergeCell ref="B14:L14"/>
     <mergeCell ref="B18:L18"/>
     <mergeCell ref="B21:L21"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="B42:L42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935E4F07-F6A6-45CA-BCAF-C17093FB70C4}">
+  <dimension ref="B8:X16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75"/>
+    </row>
+    <row r="9" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77">
+        <v>1</v>
+      </c>
+      <c r="H9" s="78"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76">
+        <v>3</v>
+      </c>
+      <c r="K9" s="77">
+        <v>3</v>
+      </c>
+      <c r="L9" s="78">
+        <v>5</v>
+      </c>
+      <c r="M9" s="75"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="77">
+        <v>4</v>
+      </c>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="76">
+        <v>10</v>
+      </c>
+      <c r="S9" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" s="78">
+        <v>14</v>
+      </c>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+    </row>
+    <row r="10" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="76">
+        <v>0</v>
+      </c>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="79">
+        <v>0</v>
+      </c>
+      <c r="S10" s="77"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+    </row>
+    <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="76">
+        <v>0</v>
+      </c>
+      <c r="C11" s="77">
+        <v>1</v>
+      </c>
+      <c r="D11" s="78">
+        <v>0</v>
+      </c>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
+      <c r="J11" s="76">
+        <v>3</v>
+      </c>
+      <c r="K11" s="77">
+        <v>2</v>
+      </c>
+      <c r="L11" s="78">
+        <v>5</v>
+      </c>
+      <c r="M11" s="75"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="76">
+        <v>10</v>
+      </c>
+      <c r="S11" s="77">
+        <v>4</v>
+      </c>
+      <c r="T11" s="78">
+        <v>14</v>
+      </c>
+      <c r="U11" s="75"/>
+      <c r="V11" s="76">
+        <v>14</v>
+      </c>
+      <c r="W11" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="X11" s="78">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="76">
+        <v>0</v>
+      </c>
+      <c r="C12" s="77"/>
+      <c r="D12" s="78"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="76">
+        <v>0</v>
+      </c>
+      <c r="W12" s="77"/>
+      <c r="X12" s="78"/>
+    </row>
+    <row r="13" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="76">
+        <v>0</v>
+      </c>
+      <c r="C13" s="77">
+        <v>0</v>
+      </c>
+      <c r="D13" s="78">
+        <v>0</v>
+      </c>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77">
+        <v>2</v>
+      </c>
+      <c r="H13" s="78"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="77">
+        <v>5</v>
+      </c>
+      <c r="L13" s="78"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="76">
+        <v>11</v>
+      </c>
+      <c r="S13" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="T13" s="78">
+        <v>12</v>
+      </c>
+      <c r="U13" s="75"/>
+      <c r="V13" s="76">
+        <v>14</v>
+      </c>
+      <c r="W13" s="77">
+        <v>5</v>
+      </c>
+      <c r="X13" s="78">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="79">
+        <v>2</v>
+      </c>
+      <c r="S14" s="77"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="78"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="76">
+        <v>13</v>
+      </c>
+      <c r="S15" s="77">
+        <v>1</v>
+      </c>
+      <c r="T15" s="78">
+        <v>14</v>
+      </c>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>